--- a/pred_ohlcv/54_21/2020-01-15 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ORBS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-4164040.894087433</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4164276.894087433</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4163952.494087433</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4164031.494087433</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4163621.694087434</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4164028.894087434</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4163849.794087434</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4163587.594087434</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4182686.159087433</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4182609.159087433</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4296895.311587433</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4556127.874987434</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4556049.874987434</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4555950.250687433</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4555794.250687433</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4580257.973787433</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4580180.973787433</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4580258.973787433</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4580416.973787433</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4580418.973787433</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4580342.973787433</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4551825.400787434</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5100962.071015024</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5781420.897715022</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5873529.480815022</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5904815.128915022</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-5733452.209715022</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-5733451.258615022</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5734251.258615022</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5732486.483315022</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5295063.251634608</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5143270.060815022</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5046267.327815022</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5046628.053115022</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5046708.053115022</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5484053.284815023</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5650907.619315022</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5642907.619315022</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5606457.594015022</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5605676.275915022</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5605676.275915022</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-5604676.275915022</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5605255.276015022</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5603755.275915022</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-5603755.275915022</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-5605510.665215022</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-5603715.665215022</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-5706291.172915022</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5706091.172915022</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5705091.172915022</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5704091.172915022</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5704013.172915022</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5681573.172715022</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5680573.172715022</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5650406.067015022</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5641973.413215022</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5780380.137715022</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-5586798.490610681</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-5587969.83451068</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-5585330.884110682</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-5667706.134410682</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ORBS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-4164040.894087433</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4164276.894087433</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4163772.494087434</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4163849.794087434</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4163587.594087434</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4182686.159087433</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4182609.159087433</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4296895.311587433</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4556127.874987434</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4556049.874987434</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4555950.250687433</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4555794.250687433</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4555716.250687433</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4580257.973787433</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4580180.973787433</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4580258.973787433</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4580181.973787433</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4580416.973787433</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4580339.973787433</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-4580418.973787433</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-4580262.973787433</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-4580185.973787433</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4580342.973787433</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4551825.400787434</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4551590.400787434</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4551669.400787434</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4644743.415215024</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4644726.415215024</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4641370.415215024</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4641448.425015024</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4634133.344715024</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4671123.819215024</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-5055236.751915024</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-5100962.071015024</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-5170638.074315024</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5781420.897715022</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5873529.480815022</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-5714362.131215022</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5711362.131215022</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5813204.377715022</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-5806483.329415022</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-5831840.269315022</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5830446.369315022</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5830339.868615022</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-6025267.841315022</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5340607.820515022</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5904815.128915022</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5732320.615415022</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5732486.483315022</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5295063.251634608</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5143270.060815022</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5046267.327815022</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5046628.053115022</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5046708.053115022</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5484053.284815023</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5577922.424215022</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5650907.619315022</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5642907.619315022</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5643084.059415022</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-5607415.953815022</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-5606429.698815022</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-5607457.594015022</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-5606457.594015022</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5605676.275915022</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-5604176.275915022</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5605255.276015022</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-5605510.665215022</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-5603715.665215022</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-5706291.172915022</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5706091.172915022</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5705091.172915022</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5704091.172915022</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5704013.172915022</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5681573.172715022</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5680573.172715022</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5667309.172715022</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5667388.172715022</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5650406.067015022</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5641973.413215022</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-5642052.413215022</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5690703.850415022</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-5607372.142115022</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5780380.137715022</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5757873.546815022</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-5586798.490610681</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-5587969.83451068</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-5546320.612010681</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-5575366.890310681</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-5572933.765410681</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-5667706.134410682</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
